--- a/IBK/excel/LC_ret_LC_result_0702.xlsx
+++ b/IBK/excel/LC_ret_LC_result_0702.xlsx
@@ -386,7 +386,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISSUING BANK</t>
+          <t>SWIFT MT SENDER</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -396,7 +396,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CREDIT NO</t>
+          <t>CREDIT NUMBER</t>
         </is>
       </c>
       <c r="E1" s="1" t="n"/>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>26.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>31.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>30.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="50">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>28.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="59">
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>31.2</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>29.2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="71">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>31.2</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>28.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>30.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="86">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44.2</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="110">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="3" t="n">
-        <v>26.2</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
